--- a/input/resources-spreadsheets/alert-receiver.xlsx
+++ b/input/resources-spreadsheets/alert-receiver.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/davinci-alerts/input/resources-spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD55372A-66EB-CB4B-B7A7-7679B06A8869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9850099-8B6F-AC44-9E36-18434B7F826E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="73500" yWindow="3380" windowWidth="28800" windowHeight="15440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="73500" yWindow="3380" windowWidth="28800" windowHeight="15440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="igs" sheetId="14" r:id="rId1"/>
@@ -311,11 +311,6 @@
     <t>doc</t>
   </si>
   <si>
-    <t>1. For general security consideration refer to the [Security and Privacy Considerations](http://build.fhir.org/secpriv-module.html). 
-1. For security considerations specific to this guide refer to the  [Security](security.html) page for requirements and recommendations.
-1. A server **SHALL** reject any unauthorized requests by returning an `HTTP 401` unauthorized response code.</t>
-  </si>
-  <si>
     <t>conf_Bundle</t>
   </si>
   <si>
@@ -520,6 +515,11 @@
   </si>
   <si>
     <t>https://build.fhir.org/ig/HL7/davinci-alerts/package.tgz</t>
+  </si>
+  <si>
+    <t>1. For general security consideration refer to the [Security and Privacy Considerations](http://build.fhir.org/secpriv-module.html). 
+1. For security considerations specific to this guide refer to the  [Privacy, Safety, and Security](security.html) page for requirements and recommendations.
+1. A server **SHALL** reject any unauthorized requests by returning an `HTTP 401` unauthorized response code.</t>
   </si>
 </sst>
 </file>
@@ -662,7 +662,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -691,7 +691,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
@@ -1026,10 +1025,10 @@
         <v>20</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D1" t="s">
         <v>15</v>
@@ -1037,58 +1036,58 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" t="s">
         <v>117</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>118</v>
       </c>
-      <c r="C2" t="s">
-        <v>119</v>
-      </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" t="s">
         <v>120</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>121</v>
       </c>
-      <c r="C3" t="s">
-        <v>122</v>
-      </c>
       <c r="D3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" t="s">
         <v>123</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>124</v>
       </c>
-      <c r="C4" t="s">
-        <v>125</v>
-      </c>
       <c r="D4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" t="s">
         <v>126</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>127</v>
       </c>
-      <c r="C5" t="s">
-        <v>128</v>
-      </c>
       <c r="D5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2040,19 +2039,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" t="s">
         <v>104</v>
-      </c>
-      <c r="B1" t="s">
-        <v>105</v>
       </c>
       <c r="C1" t="s">
         <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F1" t="s">
         <v>15</v>
@@ -2063,16 +2062,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" t="s">
         <v>107</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>108</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>109</v>
-      </c>
-      <c r="F2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2080,16 +2079,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" t="s">
         <v>111</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>112</v>
       </c>
-      <c r="E3" t="s">
-        <v>113</v>
-      </c>
       <c r="F3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -2097,16 +2096,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" t="s">
         <v>114</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>115</v>
       </c>
-      <c r="E4" t="s">
-        <v>116</v>
-      </c>
       <c r="F4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2119,8 +2118,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2142,23 +2141,23 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.2">
@@ -2166,7 +2165,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2174,7 +2173,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -2190,7 +2189,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2198,34 +2197,34 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" t="s">
         <v>131</v>
-      </c>
-      <c r="B10" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" t="s">
         <v>133</v>
-      </c>
-      <c r="B11" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B12" s="17"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2238,7 +2237,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -2254,63 +2253,63 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>142</v>
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" t="s">
         <v>92</v>
-      </c>
-      <c r="B4" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" t="s">
         <v>94</v>
-      </c>
-      <c r="B5" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>96</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" t="s">
         <v>98</v>
-      </c>
-      <c r="B7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" t="s">
         <v>100</v>
-      </c>
-      <c r="B8" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B9" t="b">
         <v>0</v>
@@ -2347,7 +2346,7 @@
         <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D1" t="s">
         <v>11</v>
@@ -2451,16 +2450,16 @@
         <v>73</v>
       </c>
       <c r="T1" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="U1" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
@@ -2514,19 +2513,19 @@
     </row>
     <row r="2" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>82</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>83</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2557,19 +2556,19 @@
         <v>23</v>
       </c>
       <c r="B1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" t="s">
         <v>84</v>
-      </c>
-      <c r="C1" t="s">
-        <v>85</v>
       </c>
       <c r="D1" t="s">
         <v>74</v>
       </c>
       <c r="E1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">

--- a/input/resources-spreadsheets/alert-receiver.xlsx
+++ b/input/resources-spreadsheets/alert-receiver.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/davinci-alerts/input/resources-spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9850099-8B6F-AC44-9E36-18434B7F826E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D577A4-D0FF-5747-8085-BB096D5FBCAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="73500" yWindow="3380" windowWidth="28800" windowHeight="15440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="73500" yWindow="3380" windowWidth="28800" windowHeight="15440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="igs" sheetId="14" r:id="rId1"/>
@@ -466,9 +466,6 @@
     <t>http://hl7.org/fhir/us/core/STU7/index.html</t>
   </si>
   <si>
-    <t>Da Vinci Health Record Exchange (HRex) 1.1.0 - STU R1</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/us/davinci-hrex/ImplementationGuide/hl7.fhir.us.davinci-hrex|1.1.0</t>
   </si>
   <si>
@@ -520,6 +517,9 @@
     <t>1. For general security consideration refer to the [Security and Privacy Considerations](http://build.fhir.org/secpriv-module.html). 
 1. For security considerations specific to this guide refer to the  [Privacy, Safety, and Security](security.html) page for requirements and recommendations.
 1. A server **SHALL** reject any unauthorized requests by returning an `HTTP 401` unauthorized response code.</t>
+  </si>
+  <si>
+    <t>Da Vinci Health Record Exchange (HRex) 1.1.0 - STU 1.1</t>
   </si>
 </sst>
 </file>
@@ -1009,8 +1009,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1078,13 +1078,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" t="s">
         <v>125</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>126</v>
-      </c>
-      <c r="C5" t="s">
-        <v>127</v>
       </c>
       <c r="D5" t="s">
         <v>109</v>
@@ -2118,7 +2118,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -2149,7 +2149,7 @@
         <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2197,34 +2197,34 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" t="s">
         <v>130</v>
-      </c>
-      <c r="B10" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" t="s">
         <v>132</v>
-      </c>
-      <c r="B11" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B12" s="17"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2256,7 +2256,7 @@
         <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -2264,7 +2264,7 @@
         <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2309,7 +2309,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B9" t="b">
         <v>0</v>
@@ -2450,16 +2450,16 @@
         <v>73</v>
       </c>
       <c r="T1" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="U1" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
